--- a/Data_preparation/datasets/final_data/NXP_SEMICONDUCTORS_NV.xlsx
+++ b/Data_preparation/datasets/final_data/NXP_SEMICONDUCTORS_NV.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,114 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>TRI</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>CRM</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>META</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>ORCL</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>LSCC</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>MCHP</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>ZBRA</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>ADBE</t>
-  </si>
-  <si>
-    <t>HUBS</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>STNE</t>
-  </si>
-  <si>
-    <t>NOC</t>
-  </si>
-  <si>
-    <t>DDOG</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>PRO</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>WIX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>NTAP</t>
   </si>
 </sst>
 </file>
@@ -760,22 +652,22 @@
         <v>42099</v>
       </c>
       <c r="D2">
-        <v>32.50155454136809</v>
+        <v>89.26210374595165</v>
       </c>
       <c r="E2">
-        <v>32.94282531738281</v>
+        <v>85.79873657226562</v>
       </c>
       <c r="F2">
-        <v>34.21047339167337</v>
+        <v>92.04708383448224</v>
       </c>
       <c r="G2">
-        <v>32.26888374560449</v>
+        <v>83.41543322652859</v>
       </c>
       <c r="H2">
-        <v>450687724</v>
+        <v>252114595</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>23088221166</v>
@@ -876,22 +768,22 @@
         <v>42190</v>
       </c>
       <c r="D3">
-        <v>19.36546186976121</v>
+        <v>89.6816417642498</v>
       </c>
       <c r="E3">
-        <v>20.08906555175781</v>
+        <v>86.5753173828125</v>
       </c>
       <c r="F3">
-        <v>20.242831549833</v>
+        <v>90.30647380153049</v>
       </c>
       <c r="G3">
-        <v>19.17551655018982</v>
+        <v>76.51548072164294</v>
       </c>
       <c r="H3">
-        <v>174270076</v>
+        <v>252114595</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>22820754114</v>
@@ -1004,22 +896,22 @@
         <v>42281</v>
       </c>
       <c r="D4">
-        <v>68.44008297911779</v>
+        <v>76.84572750590219</v>
       </c>
       <c r="E4">
-        <v>76.90107727050781</v>
+        <v>69.93684387207031</v>
       </c>
       <c r="F4">
-        <v>78.55369160257169</v>
+        <v>87.5571779565623</v>
       </c>
       <c r="G4">
-        <v>67.96507621452463</v>
+        <v>64.74179067590643</v>
       </c>
       <c r="H4">
-        <v>952000000</v>
+        <v>252114595</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>19973974350</v>
@@ -1132,22 +1024,22 @@
         <v>42369</v>
       </c>
       <c r="D5">
-        <v>84.98000335693359</v>
+        <v>73.19492317756635</v>
       </c>
       <c r="E5">
-        <v>62.20999908447266</v>
+        <v>66.75019836425781</v>
       </c>
       <c r="F5">
-        <v>85.66999816894531</v>
+        <v>76.55118009840629</v>
       </c>
       <c r="G5">
-        <v>57.66999816894531</v>
+        <v>59.74312476355895</v>
       </c>
       <c r="H5">
-        <v>207519000</v>
+        <v>252114595</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>19448293084</v>
@@ -1260,22 +1152,22 @@
         <v>42463</v>
       </c>
       <c r="D6">
-        <v>113.053060611574</v>
+        <v>71.59712337694421</v>
       </c>
       <c r="E6">
-        <v>116.8595962524414</v>
+        <v>76.12271118164062</v>
       </c>
       <c r="F6">
-        <v>120.0499278661556</v>
+        <v>81.38917598645428</v>
       </c>
       <c r="G6">
-        <v>105.6586426163339</v>
+        <v>71.45430757062508</v>
       </c>
       <c r="H6">
-        <v>2168962480</v>
+        <v>252114595</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>28061418354</v>
@@ -1376,22 +1268,22 @@
         <v>42554</v>
       </c>
       <c r="D7">
-        <v>13.19996774679334</v>
+        <v>69.47268408575884</v>
       </c>
       <c r="E7">
-        <v>13.69067287445068</v>
+        <v>75.06048583984375</v>
       </c>
       <c r="F7">
-        <v>14.06851604737382</v>
+        <v>79.53251831434947</v>
       </c>
       <c r="G7">
-        <v>12.75833331909089</v>
+        <v>66.98227103624932</v>
       </c>
       <c r="H7">
-        <v>171080665</v>
+        <v>252114595</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>26708008005</v>
@@ -1492,22 +1384,22 @@
         <v>42645</v>
       </c>
       <c r="D8">
-        <v>49.90532904401199</v>
+        <v>91.92212165949459</v>
       </c>
       <c r="E8">
-        <v>48.90722274780273</v>
+        <v>89.26210784912109</v>
       </c>
       <c r="F8">
-        <v>51.30454387702167</v>
+        <v>95.99247159816385</v>
       </c>
       <c r="G8">
-        <v>45.00807712847811</v>
+        <v>87.36082740359183</v>
       </c>
       <c r="H8">
-        <v>60498713</v>
+        <v>252114595</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>34602875754</v>
@@ -1620,22 +1512,22 @@
         <v>42735</v>
       </c>
       <c r="D9">
-        <v>45.97999954223633</v>
+        <v>87.70002159777536</v>
       </c>
       <c r="E9">
-        <v>53.06000137329102</v>
+        <v>87.34297180175781</v>
       </c>
       <c r="F9">
-        <v>53.20000076293945</v>
+        <v>88.18203780087526</v>
       </c>
       <c r="G9">
-        <v>45.61000061035156</v>
+        <v>85.69162415660493</v>
       </c>
       <c r="H9">
-        <v>50476952</v>
+        <v>252114595</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>32682777825</v>
@@ -1748,22 +1640,22 @@
         <v>42827</v>
       </c>
       <c r="D10">
-        <v>39.22581140273195</v>
+        <v>92.54695090405528</v>
       </c>
       <c r="E10">
-        <v>39.47163009643555</v>
+        <v>94.39467620849609</v>
       </c>
       <c r="F10">
-        <v>39.55064372641578</v>
+        <v>94.4393099851402</v>
       </c>
       <c r="G10">
-        <v>38.41811614637533</v>
+        <v>92.08279095368404</v>
       </c>
       <c r="H10">
-        <v>2850792605</v>
+        <v>252114595</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>34713163287</v>
@@ -1864,22 +1756,22 @@
         <v>42918</v>
       </c>
       <c r="D11">
-        <v>102.0133622053498</v>
+        <v>97.74201769510552</v>
       </c>
       <c r="E11">
-        <v>96.09502410888672</v>
+        <v>98.48289489746094</v>
       </c>
       <c r="F11">
-        <v>103.6407392657914</v>
+        <v>98.57215565204568</v>
       </c>
       <c r="G11">
-        <v>95.4108561422248</v>
+        <v>97.29570711202284</v>
       </c>
       <c r="H11">
-        <v>931519242</v>
+        <v>252114595</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>36879164694</v>
@@ -1980,22 +1872,22 @@
         <v>43009</v>
       </c>
       <c r="D12">
-        <v>48.20000076293945</v>
+        <v>101.0000841479672</v>
       </c>
       <c r="E12">
-        <v>55.26399993896485</v>
+        <v>104.4813079833984</v>
       </c>
       <c r="F12">
-        <v>56.13949966430664</v>
+        <v>105.3292953490091</v>
       </c>
       <c r="G12">
-        <v>47.51850128173828</v>
+        <v>100.732295079796</v>
       </c>
       <c r="H12">
-        <v>10664912097</v>
+        <v>252114595</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>38237900893</v>
@@ -2108,22 +2000,22 @@
         <v>43100</v>
       </c>
       <c r="D13">
-        <v>8.751999855041504</v>
+        <v>104.4366750423875</v>
       </c>
       <c r="E13">
-        <v>9.208000183105469</v>
+        <v>107.4001770019531</v>
       </c>
       <c r="F13">
-        <v>9.28600025177002</v>
+        <v>108.417764572938</v>
       </c>
       <c r="G13">
-        <v>8.696000099182129</v>
+        <v>104.2581535356094</v>
       </c>
       <c r="H13">
-        <v>766266033</v>
+        <v>252114595</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>39697002443</v>
@@ -2236,22 +2128,22 @@
         <v>43191</v>
       </c>
       <c r="D14">
-        <v>5.570000171661377</v>
+        <v>104.4366443523244</v>
       </c>
       <c r="E14">
-        <v>5.420000076293945</v>
+        <v>93.63593292236328</v>
       </c>
       <c r="F14">
-        <v>5.679999828338623</v>
+        <v>104.757988418221</v>
       </c>
       <c r="G14">
-        <v>5.050000190734863</v>
+        <v>89.46739499162697</v>
       </c>
       <c r="H14">
-        <v>136895573</v>
+        <v>252114595</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>39666489759</v>
@@ -2364,22 +2256,22 @@
         <v>43282</v>
       </c>
       <c r="D15">
-        <v>41.31453722515696</v>
+        <v>96.938651101509</v>
       </c>
       <c r="E15">
-        <v>39.22719192504883</v>
+        <v>85.10249328613281</v>
       </c>
       <c r="F15">
-        <v>44.47537650641669</v>
+        <v>99.51832556240194</v>
       </c>
       <c r="G15">
-        <v>38.71281128826907</v>
+        <v>80.55905510897375</v>
       </c>
       <c r="H15">
-        <v>212968277</v>
+        <v>252114595</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>37588181546</v>
@@ -2492,22 +2384,22 @@
         <v>43373</v>
       </c>
       <c r="D16">
-        <v>40.01662959399956</v>
+        <v>77.3555743563485</v>
       </c>
       <c r="E16">
-        <v>40.09360122680664</v>
+        <v>67.11667633056641</v>
       </c>
       <c r="F16">
-        <v>42.52247987457982</v>
+        <v>77.85677686277239</v>
       </c>
       <c r="G16">
-        <v>36.22792094161961</v>
+        <v>62.3999851846563</v>
       </c>
       <c r="H16">
-        <v>4757218036</v>
+        <v>252114595</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>29440853770</v>
@@ -2620,22 +2512,22 @@
         <v>43465</v>
       </c>
       <c r="D17">
-        <v>42.82212632249508</v>
+        <v>64.56246823987456</v>
       </c>
       <c r="E17">
-        <v>46.75239944458008</v>
+        <v>78.13755035400391</v>
       </c>
       <c r="F17">
-        <v>46.95784665825049</v>
+        <v>79.00843993563362</v>
       </c>
       <c r="G17">
-        <v>41.83955640128374</v>
+        <v>64.24822464661639</v>
       </c>
       <c r="H17">
-        <v>450687724</v>
+        <v>252114595</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>21654368900</v>
@@ -2748,22 +2640,22 @@
         <v>43555</v>
       </c>
       <c r="D18">
-        <v>83.62000274658203</v>
+        <v>81.02225649341855</v>
       </c>
       <c r="E18">
-        <v>104.0299987792969</v>
+        <v>95.08412170410156</v>
       </c>
       <c r="F18">
-        <v>104.9800033569336</v>
+        <v>96.95663085645415</v>
       </c>
       <c r="G18">
-        <v>82.03099822998047</v>
+        <v>81.02225649341855</v>
       </c>
       <c r="H18">
-        <v>168459019</v>
+        <v>252114595</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>25879681406</v>
@@ -2864,22 +2756,22 @@
         <v>43646</v>
       </c>
       <c r="D19">
-        <v>14.72999954223633</v>
+        <v>91.98946213367324</v>
       </c>
       <c r="E19">
-        <v>16.79999923706055</v>
+        <v>93.32538604736328</v>
       </c>
       <c r="F19">
-        <v>18.36000061035156</v>
+        <v>95.91600521617022</v>
       </c>
       <c r="G19">
-        <v>13.96000003814697</v>
+        <v>84.80433103882154</v>
       </c>
       <c r="H19">
-        <v>1435682333</v>
+        <v>252114595</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>27835922379</v>
@@ -2992,22 +2884,22 @@
         <v>43737</v>
       </c>
       <c r="D20">
-        <v>42.51583583355016</v>
+        <v>101.1168953064144</v>
       </c>
       <c r="E20">
-        <v>42.25590896606445</v>
+        <v>102.9646072387695</v>
       </c>
       <c r="F20">
-        <v>43.8557984628152</v>
+        <v>107.3302773138598</v>
       </c>
       <c r="G20">
-        <v>39.92553545962458</v>
+        <v>92.28592312236268</v>
       </c>
       <c r="H20">
-        <v>539679667</v>
+        <v>252114595</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>29695530244</v>
@@ -3120,22 +3012,22 @@
         <v>43830</v>
       </c>
       <c r="D21">
-        <v>74.30999755859375</v>
+        <v>116.8407326101147</v>
       </c>
       <c r="E21">
-        <v>78.51000213623047</v>
+        <v>115.2508773803711</v>
       </c>
       <c r="F21">
-        <v>80.26000213623047</v>
+        <v>125.2987602143609</v>
       </c>
       <c r="G21">
-        <v>70.55000305175781</v>
+        <v>113.2703717312131</v>
       </c>
       <c r="H21">
-        <v>201104117</v>
+        <v>252114595</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>35572615564</v>
@@ -3248,22 +3140,22 @@
         <v>43919</v>
       </c>
       <c r="D22">
-        <v>26.5</v>
+        <v>72.50229647033137</v>
       </c>
       <c r="E22">
-        <v>30.27000045776367</v>
+        <v>90.82855224609376</v>
       </c>
       <c r="F22">
-        <v>32</v>
+        <v>98.36339243774692</v>
       </c>
       <c r="G22">
-        <v>21.67000007629395</v>
+        <v>66.46347687426717</v>
       </c>
       <c r="H22">
-        <v>2085418676</v>
+        <v>252114595</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>22743728577</v>
@@ -3364,22 +3256,22 @@
         <v>44010</v>
       </c>
       <c r="D23">
-        <v>256.4700012207031</v>
+        <v>104.4194807235422</v>
       </c>
       <c r="E23">
-        <v>280.75</v>
+        <v>107.6056213378906</v>
       </c>
       <c r="F23">
-        <v>287.8299865722656</v>
+        <v>115.4702748203638</v>
       </c>
       <c r="G23">
-        <v>250.9499969482422</v>
+        <v>102.2496039196007</v>
       </c>
       <c r="H23">
-        <v>50845151</v>
+        <v>252114595</v>
       </c>
       <c r="I23" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>30177627571</v>
@@ -3480,22 +3372,22 @@
         <v>44101</v>
       </c>
       <c r="D24">
-        <v>142.1999969482422</v>
+        <v>119.041726486157</v>
       </c>
       <c r="E24">
-        <v>135.75</v>
+        <v>124.0832901000977</v>
       </c>
       <c r="F24">
-        <v>158.7359924316406</v>
+        <v>133.294030872814</v>
       </c>
       <c r="G24">
-        <v>133.8099975585938</v>
+        <v>116.2959469389671</v>
       </c>
       <c r="H24">
-        <v>158300823</v>
+        <v>252114595</v>
       </c>
       <c r="I24" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>33459437444</v>
@@ -3596,22 +3488,22 @@
         <v>44196</v>
       </c>
       <c r="D25">
-        <v>29.91399955749512</v>
+        <v>147.5863992591716</v>
       </c>
       <c r="E25">
-        <v>28.95000076293945</v>
+        <v>147.7152709960938</v>
       </c>
       <c r="F25">
-        <v>31.0620002746582</v>
+        <v>168.0402752290201</v>
       </c>
       <c r="G25">
-        <v>27.46199989318848</v>
+        <v>143.6189757375344</v>
       </c>
       <c r="H25">
-        <v>766266033</v>
+        <v>252114595</v>
       </c>
       <c r="I25" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>44482982942</v>
@@ -3724,22 +3616,22 @@
         <v>44290</v>
       </c>
       <c r="D26">
-        <v>483.1199951171875</v>
+        <v>189.5204891505387</v>
       </c>
       <c r="E26">
-        <v>508.3399963378906</v>
+        <v>177.739501953125</v>
       </c>
       <c r="F26">
-        <v>525.4400024414062</v>
+        <v>199.8242179812948</v>
       </c>
       <c r="G26">
-        <v>480.5</v>
+        <v>176.3915295803338</v>
       </c>
       <c r="H26">
-        <v>418600000</v>
+        <v>252114595</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>57639866048</v>
@@ -3840,22 +3732,22 @@
         <v>44381</v>
       </c>
       <c r="D27">
-        <v>578.8200073242188</v>
+        <v>190.3024250274495</v>
       </c>
       <c r="E27">
-        <v>596.02001953125</v>
+        <v>191.0894165039062</v>
       </c>
       <c r="F27">
-        <v>616.4500122070312</v>
+        <v>193.2744600666496</v>
       </c>
       <c r="G27">
-        <v>543.1699829101562</v>
+        <v>171.2110792892394</v>
       </c>
       <c r="H27">
-        <v>52693110</v>
+        <v>252114595</v>
       </c>
       <c r="I27" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>55902861968</v>
@@ -3956,22 +3848,22 @@
         <v>44472</v>
       </c>
       <c r="D28">
-        <v>604.239990234375</v>
+        <v>182.2529814664118</v>
       </c>
       <c r="E28">
-        <v>690.3099975585938</v>
+        <v>186.4581756591797</v>
       </c>
       <c r="F28">
-        <v>690.969970703125</v>
+        <v>188.8438972091272</v>
       </c>
       <c r="G28">
-        <v>594.6799926757812</v>
+        <v>169.266070713695</v>
       </c>
       <c r="H28">
-        <v>424926346</v>
+        <v>252114595</v>
       </c>
       <c r="I28" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>51141867003</v>
@@ -4072,22 +3964,22 @@
         <v>44561</v>
       </c>
       <c r="D29">
-        <v>17.05999946594238</v>
+        <v>212.5538281334956</v>
       </c>
       <c r="E29">
-        <v>15.57999992370606</v>
+        <v>191.1951446533203</v>
       </c>
       <c r="F29">
-        <v>19.65999984741211</v>
+        <v>218.6124307748278</v>
       </c>
       <c r="G29">
-        <v>13.14000034332275</v>
+        <v>167.6307832560902</v>
       </c>
       <c r="H29">
-        <v>250599325</v>
+        <v>252114595</v>
       </c>
       <c r="I29" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>60574275457</v>
@@ -4200,22 +4092,22 @@
         <v>44654</v>
       </c>
       <c r="D30">
-        <v>421.9831085808795</v>
+        <v>174.9734117405344</v>
       </c>
       <c r="E30">
-        <v>415.1985778808594</v>
+        <v>159.8063049316406</v>
       </c>
       <c r="F30">
-        <v>450.9733274615733</v>
+        <v>174.9734117405344</v>
       </c>
       <c r="G30">
-        <v>408.5746965536123</v>
+        <v>154.0555276639445</v>
       </c>
       <c r="H30">
-        <v>143182982</v>
+        <v>252114595</v>
       </c>
       <c r="I30" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>47787195155</v>
@@ -4328,22 +4220,22 @@
         <v>44745</v>
       </c>
       <c r="D31">
-        <v>47.91999816894531</v>
+        <v>137.8403395505982</v>
       </c>
       <c r="E31">
-        <v>61.5</v>
+        <v>172.8102722167969</v>
       </c>
       <c r="F31">
-        <v>61.63000106811523</v>
+        <v>174.1165924611291</v>
       </c>
       <c r="G31">
-        <v>43.40999984741211</v>
+        <v>131.8820163837993</v>
       </c>
       <c r="H31">
-        <v>136895573</v>
+        <v>252114595</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>38358090171</v>
@@ -4456,22 +4348,22 @@
         <v>44836</v>
       </c>
       <c r="D32">
-        <v>89.61000061035156</v>
+        <v>141.2867433746142</v>
       </c>
       <c r="E32">
-        <v>80.51000213623047</v>
+        <v>138.0361633300781</v>
       </c>
       <c r="F32">
-        <v>97.31400299072266</v>
+        <v>154.7709609918054</v>
       </c>
       <c r="G32">
-        <v>75.53500366210938</v>
+        <v>124.8070678865</v>
       </c>
       <c r="H32">
-        <v>323270704</v>
+        <v>252114595</v>
       </c>
       <c r="I32" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>38735900457</v>
@@ -4584,22 +4476,22 @@
         <v>44926</v>
       </c>
       <c r="D33">
-        <v>26.71999931335449</v>
+        <v>151.7172528416604</v>
       </c>
       <c r="E33">
-        <v>28.72999954223633</v>
+        <v>175.0094299316406</v>
       </c>
       <c r="F33">
-        <v>29.72999954223633</v>
+        <v>175.807038754744</v>
       </c>
       <c r="G33">
-        <v>26.64999961853028</v>
+        <v>145.3743429310661</v>
       </c>
       <c r="H33">
-        <v>178998669</v>
+        <v>252114595</v>
       </c>
       <c r="I33" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>40951082242</v>
@@ -4712,22 +4604,22 @@
         <v>45018</v>
       </c>
       <c r="D34">
-        <v>27.09000015258789</v>
+        <v>177.1949963306114</v>
       </c>
       <c r="E34">
-        <v>28.3700008392334</v>
+        <v>156.3839263916016</v>
       </c>
       <c r="F34">
-        <v>30.20000076293945</v>
+        <v>177.6438825761018</v>
       </c>
       <c r="G34">
-        <v>25.52000045776367</v>
+        <v>148.3326396193198</v>
       </c>
       <c r="H34">
-        <v>48253392</v>
+        <v>252114595</v>
       </c>
       <c r="I34" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>48393881980</v>
@@ -4840,22 +4732,22 @@
         <v>45109</v>
       </c>
       <c r="D35">
-        <v>62.68228996223018</v>
+        <v>197.3629480785773</v>
       </c>
       <c r="E35">
-        <v>70.53733825683594</v>
+        <v>214.109130859375</v>
       </c>
       <c r="F35">
-        <v>71.47598872124311</v>
+        <v>216.5961034242072</v>
       </c>
       <c r="G35">
-        <v>59.77740581347258</v>
+        <v>192.0721589607045</v>
       </c>
       <c r="H35">
-        <v>1122466035</v>
+        <v>252114595</v>
       </c>
       <c r="I35" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>53164110865</v>
@@ -4968,22 +4860,22 @@
         <v>45200</v>
       </c>
       <c r="D36">
-        <v>91.69000244140624</v>
+        <v>193.7577806985518</v>
       </c>
       <c r="E36">
-        <v>79.90000152587891</v>
+        <v>166.3993072509766</v>
       </c>
       <c r="F36">
-        <v>92.63300323486328</v>
+        <v>198.9303169527541</v>
       </c>
       <c r="G36">
-        <v>77.51999664306641</v>
+        <v>161.3618886763812</v>
       </c>
       <c r="H36">
-        <v>55686229</v>
+        <v>252114595</v>
       </c>
       <c r="I36" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>51539802629</v>
@@ -5096,22 +4988,22 @@
         <v>45291</v>
       </c>
       <c r="D37">
-        <v>1152.400024414062</v>
+        <v>220.324586579236</v>
       </c>
       <c r="E37">
-        <v>1198.829956054688</v>
+        <v>204.1439361572266</v>
       </c>
       <c r="F37">
-        <v>1307.140014648438</v>
+        <v>220.324586579236</v>
       </c>
       <c r="G37">
-        <v>1113.18994140625</v>
+        <v>195.4282831980479</v>
       </c>
       <c r="H37">
-        <v>24003656</v>
+        <v>252114595</v>
       </c>
       <c r="I37" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>59203074974</v>
@@ -5224,22 +5116,22 @@
         <v>45382</v>
       </c>
       <c r="D38">
-        <v>104.6600036621094</v>
+        <v>241.8374958874331</v>
       </c>
       <c r="E38">
-        <v>92.98000335693359</v>
+        <v>249.4417724609375</v>
       </c>
       <c r="F38">
-        <v>105.0100021362305</v>
+        <v>254.2711141532573</v>
       </c>
       <c r="G38">
-        <v>90.66999816894533</v>
+        <v>207.4089032709698</v>
       </c>
       <c r="H38">
-        <v>168459019</v>
+        <v>252114595</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>63542910850</v>
@@ -5352,22 +5244,22 @@
         <v>45473</v>
       </c>
       <c r="D39">
-        <v>53.97000122070312</v>
+        <v>262.9734662228032</v>
       </c>
       <c r="E39">
-        <v>52.63999938964844</v>
+        <v>257.1495971679688</v>
       </c>
       <c r="F39">
-        <v>65.87999725341797</v>
+        <v>289.3177086830925</v>
       </c>
       <c r="G39">
-        <v>50.29000091552734</v>
+        <v>239.8147620758475</v>
       </c>
       <c r="H39">
-        <v>42689006</v>
+        <v>252114595</v>
       </c>
       <c r="I39" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>68801948629</v>
@@ -5480,22 +5372,22 @@
         <v>45564</v>
       </c>
       <c r="D40">
-        <v>36.50313191135645</v>
+        <v>234.3851839165721</v>
       </c>
       <c r="E40">
-        <v>39.63111877441406</v>
+        <v>230.1550445556641</v>
       </c>
       <c r="F40">
-        <v>41.15769383693995</v>
+        <v>251.865187249768</v>
       </c>
       <c r="G40">
-        <v>34.26814654717644</v>
+        <v>223.1178963763991</v>
       </c>
       <c r="H40">
-        <v>171080665</v>
+        <v>252114595</v>
       </c>
       <c r="I40" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>62391736545</v>
@@ -5608,22 +5500,22 @@
         <v>45657</v>
       </c>
       <c r="D41">
-        <v>12.96000003814697</v>
+        <v>206.6631526022086</v>
       </c>
       <c r="E41">
-        <v>14.22000026702881</v>
+        <v>205.6180572509766</v>
       </c>
       <c r="F41">
-        <v>15.34500026702881</v>
+        <v>216.8183508097865</v>
       </c>
       <c r="G41">
-        <v>12.61999988555908</v>
+        <v>199.4066241691167</v>
       </c>
       <c r="H41">
-        <v>453568899</v>
+        <v>252114595</v>
       </c>
       <c r="I41" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>52826237303</v>
@@ -5736,22 +5628,22 @@
         <v>45746</v>
       </c>
       <c r="D42">
-        <v>187.8600006103516</v>
+        <v>186.8138951822417</v>
       </c>
       <c r="E42">
-        <v>184.4199981689453</v>
+        <v>182.6129302978516</v>
       </c>
       <c r="F42">
-        <v>198.3399963378907</v>
+        <v>196.3254923945998</v>
       </c>
       <c r="G42">
-        <v>161.3800048828125</v>
+        <v>146.7264312152305</v>
       </c>
       <c r="H42">
-        <v>10664912097</v>
+        <v>252114595</v>
       </c>
       <c r="I42" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>48185286029</v>
@@ -5864,22 +5756,22 @@
         <v>45837</v>
       </c>
       <c r="D43">
-        <v>105.0804770925983</v>
+        <v>215.5961915656884</v>
       </c>
       <c r="E43">
-        <v>103.1780242919922</v>
+        <v>212.7891387939453</v>
       </c>
       <c r="F43">
-        <v>109.3114367486601</v>
+        <v>235.3750300894592</v>
       </c>
       <c r="G43">
-        <v>101.4440230697358</v>
+        <v>211.2163866668767</v>
       </c>
       <c r="H43">
-        <v>199618386</v>
+        <v>252114595</v>
       </c>
       <c r="I43" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>54830532614</v>
